--- a/medicine/Enfance/Fondation_d'Heucqueville/Fondation_d'Heucqueville.xlsx
+++ b/medicine/Enfance/Fondation_d'Heucqueville/Fondation_d'Heucqueville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fondation_d%27Heucqueville</t>
+          <t>Fondation_d'Heucqueville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondation d'Heucqueville est une institution qui recueillait 100 à 300 nourrissons par an au 81-88 boulevard de Montmorency à Paris 16e, après l’avoir été au 99, rue de Prony (1935), avant de s’établir en 1971 jusqu’à sa dissolution en 1979 au 18, rue des Bigots à Meudon. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fondation_d%27Heucqueville</t>
+          <t>Fondation_d'Heucqueville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Beaucoup de pupilles de la Fondation d’Heucqueville sont nés dans cet appartement du 13, rue Pierre-Guérin, dans le 16e arrondissement de Paris. On est à deux pas de la fondation et à trois du domicile de son assistante sociale en chef. C’était une adresse secrète d’où rien ne sortirait », explique Patricia Fagué[1], spécialiste de la recherche de personnes disparues.
-Dans les années 1950, le futur président de la République Georges Pompidou était membre du conseil d’administration de cette fondation et travaillait à la banque Rothschild. « On ne trouve plus à la tête des œuvres d’adoption privées que des Politiciens, des architectes, des chirurgiens, des avocats ou simplement des milliardaires, tous parents adoptifs. Ainsi Jean Walter fait-il partie en 1942 du Conseil de l’adoption Française où son épouse Domenica Lacaze a adopté Jean-Pierre Guillaume. La même année, Georges Pompidou adopte son fil unique Alain à la fondation d’Heucqueville dont il est le trésorier[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Beaucoup de pupilles de la Fondation d’Heucqueville sont nés dans cet appartement du 13, rue Pierre-Guérin, dans le 16e arrondissement de Paris. On est à deux pas de la fondation et à trois du domicile de son assistante sociale en chef. C’était une adresse secrète d’où rien ne sortirait », explique Patricia Fagué, spécialiste de la recherche de personnes disparues.
+Dans les années 1950, le futur président de la République Georges Pompidou était membre du conseil d’administration de cette fondation et travaillait à la banque Rothschild. « On ne trouve plus à la tête des œuvres d’adoption privées que des Politiciens, des architectes, des chirurgiens, des avocats ou simplement des milliardaires, tous parents adoptifs. Ainsi Jean Walter fait-il partie en 1942 du Conseil de l’adoption Française où son épouse Domenica Lacaze a adopté Jean-Pierre Guillaume. La même année, Georges Pompidou adopte son fil unique Alain à la fondation d’Heucqueville dont il est le trésorier ».
 </t>
         </is>
       </c>
